--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1050,11 +1050,11 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/ng-imm-organization)
 </t>
   </si>
   <si>
-    <t>Organization responsible for provisioning and upkeep</t>
+    <t>Organization responsible for provisioning and upkeep of the vaccination location</t>
   </si>
   <si>
     <t>The organization responsible for the provisioning and upkeep of the location.</t>
@@ -1072,11 +1072,11 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/nigeria-location)
 </t>
   </si>
   <si>
-    <t>Another Location this one is physically a part of</t>
+    <t>Another location this organization is physically part of</t>
   </si>
   <si>
     <t>Another Location of which this Location is physically a part of.</t>
@@ -5244,7 +5244,7 @@
         <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -845,7 +845,7 @@
     <t>Madison</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-lgas</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-lgas</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -867,7 +867,7 @@
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-states</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-states</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -5244,7 +5244,7 @@
         <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>76</v>
@@ -5676,7 +5676,7 @@
         <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
@@ -5782,7 +5782,7 @@
         <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-location.xlsx
+++ b/StructureDefinition-nigeria-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
